--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H2">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.50783123219685</v>
+        <v>4.233575666666667</v>
       </c>
       <c r="N2">
-        <v>2.50783123219685</v>
+        <v>12.700727</v>
       </c>
       <c r="O2">
-        <v>0.3484832565856718</v>
+        <v>0.4702904532725788</v>
       </c>
       <c r="P2">
-        <v>0.3484832565856718</v>
+        <v>0.4702904532725788</v>
       </c>
       <c r="Q2">
-        <v>64.06947428768878</v>
+        <v>114.4712530836954</v>
       </c>
       <c r="R2">
-        <v>64.06947428768878</v>
+        <v>1030.241277753259</v>
       </c>
       <c r="S2">
-        <v>0.0237175344006989</v>
+        <v>0.03337269574036905</v>
       </c>
       <c r="T2">
-        <v>0.0237175344006989</v>
+        <v>0.03337269574036906</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H3">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.54773652405257</v>
+        <v>3.605649999999999</v>
       </c>
       <c r="N3">
-        <v>3.54773652405257</v>
+        <v>10.81695</v>
       </c>
       <c r="O3">
-        <v>0.4929864344686201</v>
+        <v>0.4005367817548413</v>
       </c>
       <c r="P3">
-        <v>0.4929864344686201</v>
+        <v>0.4005367817548413</v>
       </c>
       <c r="Q3">
-        <v>90.63672670196598</v>
+        <v>97.49283021701665</v>
       </c>
       <c r="R3">
-        <v>90.63672670196598</v>
+        <v>877.4354719531498</v>
       </c>
       <c r="S3">
-        <v>0.03355232280926789</v>
+        <v>0.02842284391978388</v>
       </c>
       <c r="T3">
-        <v>0.03355232280926789</v>
+        <v>0.02842284391978388</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H4">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.14085039240938</v>
+        <v>1.162819</v>
       </c>
       <c r="N4">
-        <v>1.14085039240938</v>
+        <v>3.488456999999999</v>
       </c>
       <c r="O4">
-        <v>0.158530308945708</v>
+        <v>0.1291727649725799</v>
       </c>
       <c r="P4">
-        <v>0.158530308945708</v>
+        <v>0.1291727649725799</v>
       </c>
       <c r="Q4">
-        <v>29.14617377124802</v>
+        <v>31.44135324840766</v>
       </c>
       <c r="R4">
-        <v>29.14617377124802</v>
+        <v>282.9721792356689</v>
       </c>
       <c r="S4">
-        <v>0.01078946544752833</v>
+        <v>0.009166342530184342</v>
       </c>
       <c r="T4">
-        <v>0.01078946544752833</v>
+        <v>0.009166342530184344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H5">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.50783123219685</v>
+        <v>4.233575666666667</v>
       </c>
       <c r="N5">
-        <v>2.50783123219685</v>
+        <v>12.700727</v>
       </c>
       <c r="O5">
-        <v>0.3484832565856718</v>
+        <v>0.4702904532725788</v>
       </c>
       <c r="P5">
-        <v>0.3484832565856718</v>
+        <v>0.4702904532725788</v>
       </c>
       <c r="Q5">
-        <v>856.4172944458187</v>
+        <v>1462.982260067644</v>
       </c>
       <c r="R5">
-        <v>856.4172944458187</v>
+        <v>13166.8403406088</v>
       </c>
       <c r="S5">
-        <v>0.3170325161584047</v>
+        <v>0.4265146097692985</v>
       </c>
       <c r="T5">
-        <v>0.3170325161584047</v>
+        <v>0.4265146097692986</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H6">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.54773652405257</v>
+        <v>3.605649999999999</v>
       </c>
       <c r="N6">
-        <v>3.54773652405257</v>
+        <v>10.81695</v>
       </c>
       <c r="O6">
-        <v>0.4929864344686201</v>
+        <v>0.4005367817548413</v>
       </c>
       <c r="P6">
-        <v>0.4929864344686201</v>
+        <v>0.4005367817548413</v>
       </c>
       <c r="Q6">
-        <v>1211.542019386264</v>
+        <v>1245.99213557135</v>
       </c>
       <c r="R6">
-        <v>1211.542019386264</v>
+        <v>11213.92922014215</v>
       </c>
       <c r="S6">
-        <v>0.4484942297740603</v>
+        <v>0.3632537891841949</v>
       </c>
       <c r="T6">
-        <v>0.4484942297740603</v>
+        <v>0.3632537891841949</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H7">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.14085039240938</v>
+        <v>1.162819</v>
       </c>
       <c r="N7">
-        <v>1.14085039240938</v>
+        <v>3.488456999999999</v>
       </c>
       <c r="O7">
-        <v>0.158530308945708</v>
+        <v>0.1291727649725799</v>
       </c>
       <c r="P7">
-        <v>0.158530308945708</v>
+        <v>0.1291727649725799</v>
       </c>
       <c r="Q7">
-        <v>389.5971921439088</v>
+        <v>401.8313838262009</v>
       </c>
       <c r="R7">
-        <v>389.5971921439088</v>
+        <v>3616.482454435808</v>
       </c>
       <c r="S7">
-        <v>0.1442228910073079</v>
+        <v>0.1171490321815419</v>
       </c>
       <c r="T7">
-        <v>0.1442228910073079</v>
+        <v>0.1171490321815419</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H8">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J8">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.50783123219685</v>
+        <v>4.233575666666667</v>
       </c>
       <c r="N8">
-        <v>2.50783123219685</v>
+        <v>12.700727</v>
       </c>
       <c r="O8">
-        <v>0.3484832565856718</v>
+        <v>0.4702904532725788</v>
       </c>
       <c r="P8">
-        <v>0.3484832565856718</v>
+        <v>0.4702904532725788</v>
       </c>
       <c r="Q8">
-        <v>20.89013285740249</v>
+        <v>35.68370291989245</v>
       </c>
       <c r="R8">
-        <v>20.89013285740249</v>
+        <v>321.1533262790321</v>
       </c>
       <c r="S8">
-        <v>0.007733206026568242</v>
+        <v>0.01040314776291121</v>
       </c>
       <c r="T8">
-        <v>0.007733206026568242</v>
+        <v>0.01040314776291122</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H9">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J9">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.54773652405257</v>
+        <v>3.605649999999999</v>
       </c>
       <c r="N9">
-        <v>3.54773652405257</v>
+        <v>10.81695</v>
       </c>
       <c r="O9">
-        <v>0.4929864344686201</v>
+        <v>0.4005367817548413</v>
       </c>
       <c r="P9">
-        <v>0.4929864344686201</v>
+        <v>0.4005367817548413</v>
       </c>
       <c r="Q9">
-        <v>29.55250193036118</v>
+        <v>30.39108157346666</v>
       </c>
       <c r="R9">
-        <v>29.55250193036118</v>
+        <v>273.5197341612</v>
       </c>
       <c r="S9">
-        <v>0.01093988188529191</v>
+        <v>0.008860148650862459</v>
       </c>
       <c r="T9">
-        <v>0.01093988188529191</v>
+        <v>0.008860148650862463</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H10">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J10">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.14085039240938</v>
+        <v>1.162819</v>
       </c>
       <c r="N10">
-        <v>1.14085039240938</v>
+        <v>3.488456999999999</v>
       </c>
       <c r="O10">
-        <v>0.158530308945708</v>
+        <v>0.1291727649725799</v>
       </c>
       <c r="P10">
-        <v>0.158530308945708</v>
+        <v>0.1291727649725799</v>
       </c>
       <c r="Q10">
-        <v>9.503237682774419</v>
+        <v>9.801097467634666</v>
       </c>
       <c r="R10">
-        <v>9.503237682774419</v>
+        <v>88.209877208712</v>
       </c>
       <c r="S10">
-        <v>0.003517952490871783</v>
+        <v>0.002857390260853726</v>
       </c>
       <c r="T10">
-        <v>0.003517952490871783</v>
+        <v>0.002857390260853727</v>
       </c>
     </row>
   </sheetData>
